--- a/Databases/emails.xlsx
+++ b/Databases/emails.xlsx
@@ -31,7 +31,7 @@
     <t>Helena</t>
   </si>
   <si>
-    <t>helena@email.com</t>
+    <t>abimael.nunes29+helena@gmail.com</t>
   </si>
   <si>
     <t>Shopping Midway Mall</t>
@@ -40,7 +40,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>alice@email.com</t>
+    <t>abimael.nunes29+alice@gmail.com</t>
   </si>
   <si>
     <t>Norte Shopping</t>
@@ -49,7 +49,7 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>laura@email.com</t>
+    <t>abimael.nunes29+laura@gmail.com</t>
   </si>
   <si>
     <t>Shopping Iguatemi Fortaleza</t>
@@ -58,7 +58,7 @@
     <t>Manuela</t>
   </si>
   <si>
-    <t>manuela@email.com</t>
+    <t>abimael.nunes29+manuela@gmail.com</t>
   </si>
   <si>
     <t>Shopping União de Osasco</t>
@@ -67,7 +67,7 @@
     <t>Valentina</t>
   </si>
   <si>
-    <t>valentina@email.com</t>
+    <t>abimael.nunes29+valentina@gmail.com</t>
   </si>
   <si>
     <t>Shopping Center Interlagos</t>
@@ -76,7 +76,7 @@
     <t>Sophia</t>
   </si>
   <si>
-    <t>sophia@email.com</t>
+    <t>abimael.nunes29+sophia@gmail.com</t>
   </si>
   <si>
     <t>Rio Mar Recife</t>
@@ -85,7 +85,7 @@
     <t>Isabella</t>
   </si>
   <si>
-    <t>isabella@email.com</t>
+    <t>abimael.nunes29+isabella@gmail.com</t>
   </si>
   <si>
     <t>Salvador Shopping</t>
@@ -94,7 +94,7 @@
     <t>Heloisa</t>
   </si>
   <si>
-    <t>heloisa@email.com</t>
+    <t>abimael.nunes29+heloisa@gmail.com</t>
   </si>
   <si>
     <t>Rio Mar Shopping Fortaleza</t>
@@ -103,7 +103,7 @@
     <t>Luiza</t>
   </si>
   <si>
-    <t>luiza@email.com</t>
+    <t>abimael.nunes29+luiza@gmail.com</t>
   </si>
   <si>
     <t>Shopping Center Leste Aricanduva</t>
@@ -112,7 +112,7 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>julia@email.com</t>
+    <t>abimael.nunes29+julia@gmail.com</t>
   </si>
   <si>
     <t>Ribeirão Shopping</t>
@@ -121,7 +121,7 @@
     <t>Lorena</t>
   </si>
   <si>
-    <t>lorena@email.com</t>
+    <t>abimael.nunes29+lorena@gmail.com</t>
   </si>
   <si>
     <t>Shopping Morumbi</t>
@@ -130,7 +130,7 @@
     <t>Livia</t>
   </si>
   <si>
-    <t>livia@email.com</t>
+    <t>abimael.nunes29+livia@gmail.com</t>
   </si>
   <si>
     <t>Parque Dom Pedro Shopping</t>
@@ -139,7 +139,7 @@
     <t>Maria Luiza</t>
   </si>
   <si>
-    <t>maria.luiza@email.com</t>
+    <t>abimael.nunes29+marialuiza@gmail.com</t>
   </si>
   <si>
     <t>Bourbon Shopping SP</t>
@@ -148,7 +148,7 @@
     <t>Cecilia</t>
   </si>
   <si>
-    <t>cecilia@email.com</t>
+    <t>abimael.nunes29+cecilia@gmail.com</t>
   </si>
   <si>
     <t>Palladium Shopping Curitiba</t>
@@ -157,7 +157,7 @@
     <t>Eloa</t>
   </si>
   <si>
-    <t>eloa@email.com</t>
+    <t>abimael.nunes29+eloa@gmail.com</t>
   </si>
   <si>
     <t>Passei das Águas Shopping</t>
@@ -166,7 +166,7 @@
     <t>Miguel</t>
   </si>
   <si>
-    <t>miguel@email.com</t>
+    <t>abimael.nunes29+miguel@gmail.com</t>
   </si>
   <si>
     <t>Center Shopping Uberlândia</t>
@@ -175,7 +175,7 @@
     <t>Arthur</t>
   </si>
   <si>
-    <t>arthur@email.com</t>
+    <t>abimael.nunes29+arthur@gmail.com</t>
   </si>
   <si>
     <t>Shopping Recife</t>
@@ -184,7 +184,7 @@
     <t>Heitor</t>
   </si>
   <si>
-    <t>heitor@email.com</t>
+    <t>abimael.nunes29+heitor@gmail.com</t>
   </si>
   <si>
     <t>Shopping Vila Velha</t>
@@ -193,7 +193,7 @@
     <t>Bernardo</t>
   </si>
   <si>
-    <t>bernardo@email.com</t>
+    <t>abimael.nunes29+bernardo@gmail.com</t>
   </si>
   <si>
     <t>Shopping SP Market</t>
@@ -202,7 +202,7 @@
     <t>Davi</t>
   </si>
   <si>
-    <t>davi@email.com</t>
+    <t>abimael.nunes29+davi@gmail.com</t>
   </si>
   <si>
     <t>Shopping Eldorado</t>
@@ -211,7 +211,7 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>theo@email.com</t>
+    <t>abimael.nunes29+theo@gmail.com</t>
   </si>
   <si>
     <t>Shopping Ibirapuera</t>
@@ -220,7 +220,7 @@
     <t>Lorenzo</t>
   </si>
   <si>
-    <t>lorenzo@email.com</t>
+    <t>abimael.nunes29+lorenzo@gmail.com</t>
   </si>
   <si>
     <t>Novo Shopping Ribeirão Preto</t>
@@ -229,7 +229,7 @@
     <t>Gabriel</t>
   </si>
   <si>
-    <t>gabriel@email.com</t>
+    <t>abimael.nunes29+gabriel@gmail.com</t>
   </si>
   <si>
     <t>Iguatemi Campinas</t>
@@ -238,7 +238,7 @@
     <t>Pedro</t>
   </si>
   <si>
-    <t>pedro@email.com</t>
+    <t>abimael.nunes29+pedro@gmail.com</t>
   </si>
   <si>
     <t>Shopping Barra</t>
@@ -247,13 +247,13 @@
     <t>Benjamin</t>
   </si>
   <si>
-    <t>benjamin@email.com</t>
+    <t>abimael.nunes29+benjamin@gmail.com</t>
   </si>
   <si>
     <t>Diretoria</t>
   </si>
   <si>
-    <t>diretoria@email.com</t>
+    <t>abimael.nunes29+diretoria@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -261,13 +261,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -312,8 +318,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,21 +635,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
@@ -650,11 +662,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -663,11 +675,11 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
@@ -676,7 +688,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -689,7 +701,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1"/>
@@ -702,7 +714,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1"/>
@@ -715,7 +727,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1"/>
@@ -728,7 +740,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1"/>
@@ -741,7 +753,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1"/>
@@ -754,7 +766,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
@@ -767,7 +779,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1"/>
@@ -780,7 +792,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1"/>
@@ -793,7 +805,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1"/>
@@ -806,7 +818,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="1"/>
@@ -819,7 +831,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="1"/>
@@ -832,7 +844,7 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="1"/>
@@ -845,7 +857,7 @@
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1"/>
@@ -858,7 +870,7 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1"/>
@@ -871,7 +883,7 @@
       <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="1"/>
@@ -884,7 +896,7 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="1"/>
@@ -897,7 +909,7 @@
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1"/>
@@ -910,7 +922,7 @@
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="1"/>
@@ -923,7 +935,7 @@
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="1"/>
@@ -936,7 +948,7 @@
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="1"/>
@@ -949,7 +961,7 @@
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="1"/>
@@ -962,7 +974,7 @@
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="1"/>
@@ -975,7 +987,7 @@
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="1"/>

--- a/Databases/emails.xlsx
+++ b/Databases/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Store</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Helena</t>
   </si>
   <si>
-    <t>abimael.nunes29+helena@gmail.com</t>
+    <t/>
   </si>
   <si>
     <t>Shopping Midway Mall</t>
@@ -40,220 +40,145 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>abimael.nunes29+alice@gmail.com</t>
-  </si>
-  <si>
     <t>Norte Shopping</t>
   </si>
   <si>
     <t>Laura</t>
   </si>
   <si>
-    <t>abimael.nunes29+laura@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Iguatemi Fortaleza</t>
   </si>
   <si>
     <t>Manuela</t>
   </si>
   <si>
-    <t>abimael.nunes29+manuela@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping União de Osasco</t>
   </si>
   <si>
     <t>Valentina</t>
   </si>
   <si>
-    <t>abimael.nunes29+valentina@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Center Interlagos</t>
   </si>
   <si>
     <t>Sophia</t>
   </si>
   <si>
-    <t>abimael.nunes29+sophia@gmail.com</t>
-  </si>
-  <si>
     <t>Rio Mar Recife</t>
   </si>
   <si>
     <t>Isabella</t>
   </si>
   <si>
-    <t>abimael.nunes29+isabella@gmail.com</t>
-  </si>
-  <si>
     <t>Salvador Shopping</t>
   </si>
   <si>
     <t>Heloisa</t>
   </si>
   <si>
-    <t>abimael.nunes29+heloisa@gmail.com</t>
-  </si>
-  <si>
     <t>Rio Mar Shopping Fortaleza</t>
   </si>
   <si>
     <t>Luiza</t>
   </si>
   <si>
-    <t>abimael.nunes29+luiza@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Center Leste Aricanduva</t>
   </si>
   <si>
     <t>Julia</t>
   </si>
   <si>
-    <t>abimael.nunes29+julia@gmail.com</t>
-  </si>
-  <si>
     <t>Ribeirão Shopping</t>
   </si>
   <si>
     <t>Lorena</t>
   </si>
   <si>
-    <t>abimael.nunes29+lorena@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Morumbi</t>
   </si>
   <si>
     <t>Livia</t>
   </si>
   <si>
-    <t>abimael.nunes29+livia@gmail.com</t>
-  </si>
-  <si>
     <t>Parque Dom Pedro Shopping</t>
   </si>
   <si>
     <t>Maria Luiza</t>
   </si>
   <si>
-    <t>abimael.nunes29+marialuiza@gmail.com</t>
-  </si>
-  <si>
     <t>Bourbon Shopping SP</t>
   </si>
   <si>
     <t>Cecilia</t>
   </si>
   <si>
-    <t>abimael.nunes29+cecilia@gmail.com</t>
-  </si>
-  <si>
     <t>Palladium Shopping Curitiba</t>
   </si>
   <si>
     <t>Eloa</t>
   </si>
   <si>
-    <t>abimael.nunes29+eloa@gmail.com</t>
-  </si>
-  <si>
     <t>Passei das Águas Shopping</t>
   </si>
   <si>
     <t>Miguel</t>
   </si>
   <si>
-    <t>abimael.nunes29+miguel@gmail.com</t>
-  </si>
-  <si>
     <t>Center Shopping Uberlândia</t>
   </si>
   <si>
     <t>Arthur</t>
   </si>
   <si>
-    <t>abimael.nunes29+arthur@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Recife</t>
   </si>
   <si>
     <t>Heitor</t>
   </si>
   <si>
-    <t>abimael.nunes29+heitor@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Vila Velha</t>
   </si>
   <si>
     <t>Bernardo</t>
   </si>
   <si>
-    <t>abimael.nunes29+bernardo@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping SP Market</t>
   </si>
   <si>
     <t>Davi</t>
   </si>
   <si>
-    <t>abimael.nunes29+davi@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Eldorado</t>
   </si>
   <si>
     <t>Theo</t>
   </si>
   <si>
-    <t>abimael.nunes29+theo@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Ibirapuera</t>
   </si>
   <si>
     <t>Lorenzo</t>
   </si>
   <si>
-    <t>abimael.nunes29+lorenzo@gmail.com</t>
-  </si>
-  <si>
     <t>Novo Shopping Ribeirão Preto</t>
   </si>
   <si>
     <t>Gabriel</t>
   </si>
   <si>
-    <t>abimael.nunes29+gabriel@gmail.com</t>
-  </si>
-  <si>
     <t>Iguatemi Campinas</t>
   </si>
   <si>
     <t>Pedro</t>
   </si>
   <si>
-    <t>abimael.nunes29+pedro@gmail.com</t>
-  </si>
-  <si>
     <t>Shopping Barra</t>
   </si>
   <si>
     <t>Benjamin</t>
   </si>
   <si>
-    <t>abimael.nunes29+benjamin@gmail.com</t>
-  </si>
-  <si>
     <t>Diretoria</t>
-  </si>
-  <si>
-    <t>abimael.nunes29+diretoria@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -310,12 +235,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -635,11 +563,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -666,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -676,319 +604,319 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>

--- a/Databases/emails.xlsx
+++ b/Databases/emails.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28209"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3177721C-19FD-49E8-916C-51CCBC64DFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Store</t>
   </si>
@@ -31,7 +48,7 @@
     <t>Helena</t>
   </si>
   <si>
-    <t/>
+    <t>helena@mail.com</t>
   </si>
   <si>
     <t>Shopping Midway Mall</t>
@@ -40,153 +57,230 @@
     <t>Alice</t>
   </si>
   <si>
+    <t>alice@mail.com</t>
+  </si>
+  <si>
     <t>Norte Shopping</t>
   </si>
   <si>
     <t>Laura</t>
   </si>
   <si>
+    <t>laura@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Iguatemi Fortaleza</t>
   </si>
   <si>
     <t>Manuela</t>
   </si>
   <si>
+    <t>manuela@mail.com</t>
+  </si>
+  <si>
     <t>Shopping União de Osasco</t>
   </si>
   <si>
     <t>Valentina</t>
   </si>
   <si>
+    <t>valentina@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Center Interlagos</t>
   </si>
   <si>
     <t>Sophia</t>
   </si>
   <si>
+    <t>sophia@mail.com</t>
+  </si>
+  <si>
     <t>Rio Mar Recife</t>
   </si>
   <si>
     <t>Isabella</t>
   </si>
   <si>
+    <t>isabella@mail.com</t>
+  </si>
+  <si>
     <t>Salvador Shopping</t>
   </si>
   <si>
     <t>Heloisa</t>
   </si>
   <si>
+    <t>heloisa@mail.com</t>
+  </si>
+  <si>
     <t>Rio Mar Shopping Fortaleza</t>
   </si>
   <si>
     <t>Luiza</t>
   </si>
   <si>
+    <t>luiza@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Center Leste Aricanduva</t>
   </si>
   <si>
     <t>Julia</t>
   </si>
   <si>
+    <t>julia@mail.com</t>
+  </si>
+  <si>
     <t>Ribeirão Shopping</t>
   </si>
   <si>
     <t>Lorena</t>
   </si>
   <si>
+    <t>lorena@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Morumbi</t>
   </si>
   <si>
     <t>Livia</t>
   </si>
   <si>
+    <t>livia@mail.com</t>
+  </si>
+  <si>
     <t>Parque Dom Pedro Shopping</t>
   </si>
   <si>
     <t>Maria Luiza</t>
   </si>
   <si>
+    <t>maria luiza@mail.com</t>
+  </si>
+  <si>
     <t>Bourbon Shopping SP</t>
   </si>
   <si>
     <t>Cecilia</t>
   </si>
   <si>
+    <t>cecilia@mail.com</t>
+  </si>
+  <si>
     <t>Palladium Shopping Curitiba</t>
   </si>
   <si>
     <t>Eloa</t>
   </si>
   <si>
+    <t>eloa@mail.com</t>
+  </si>
+  <si>
     <t>Passei das Águas Shopping</t>
   </si>
   <si>
     <t>Miguel</t>
   </si>
   <si>
+    <t>miguel@mail.com</t>
+  </si>
+  <si>
     <t>Center Shopping Uberlândia</t>
   </si>
   <si>
     <t>Arthur</t>
   </si>
   <si>
+    <t>arthur@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Recife</t>
   </si>
   <si>
     <t>Heitor</t>
   </si>
   <si>
+    <t>heitor@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Vila Velha</t>
   </si>
   <si>
     <t>Bernardo</t>
   </si>
   <si>
+    <t>bernardo@mail.com</t>
+  </si>
+  <si>
     <t>Shopping SP Market</t>
   </si>
   <si>
     <t>Davi</t>
   </si>
   <si>
+    <t>davi@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Eldorado</t>
   </si>
   <si>
     <t>Theo</t>
   </si>
   <si>
+    <t>theo@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Ibirapuera</t>
   </si>
   <si>
     <t>Lorenzo</t>
   </si>
   <si>
+    <t>lorenzo@mail.com</t>
+  </si>
+  <si>
     <t>Novo Shopping Ribeirão Preto</t>
   </si>
   <si>
     <t>Gabriel</t>
   </si>
   <si>
+    <t>gabriel@mail.com</t>
+  </si>
+  <si>
     <t>Iguatemi Campinas</t>
   </si>
   <si>
     <t>Pedro</t>
   </si>
   <si>
+    <t>pedro@mail.com</t>
+  </si>
+  <si>
     <t>Shopping Barra</t>
   </si>
   <si>
     <t>Benjamin</t>
   </si>
   <si>
-    <t>Diretoria</t>
+    <t>benjamin@mail.com</t>
+  </si>
+  <si>
+    <t>BOARD OF DIRECTORS</t>
+  </si>
+  <si>
+    <t>DIRECTORS</t>
+  </si>
+  <si>
+    <t>directors@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,35 +329,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,10 +363,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -315,71 +404,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,7 +496,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -430,11 +519,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -443,13 +532,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -459,7 +548,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -468,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -485,10 +574,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -553,373 +642,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
